--- a/biology/Histoire de la zoologie et de la botanique/Victor_Pierre_Ghislain_De_Moor/Victor_Pierre_Ghislain_De_Moor.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Victor_Pierre_Ghislain_De_Moor/Victor_Pierre_Ghislain_De_Moor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Pierre Ghislain (ou Victor Petrus Gislenus) De Moor (né à Alost le 25 avril 1827 et mort dans cette même ville le 25 janvier 1895 (à 67 ans)) est un vétérinaire et botaniste belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un chirurgien, Victor De Moor obtient en 1847 le diplôme de vétérinaire de l'École royale de médecine vétérinaire de Cureghem, où il est répétiteur de pharmacie et de matière médicale. La même année, il publie un ouvrage didactique, catalogue des plantes vasculaires de la Belgique, où il crée plusieurs familles nouvelles pour des genres aberrants dans leur groupe.
 En 1848, il fonde la Société d'agriculture, d'horticulture et de botanique d'Alost. Il publie plusieurs contributions d'agriculture, horticulture et fruticulture, mais s'intéresse tout particulièrement aux graminées et à leur embryologie.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1847 : Tableaux analytiques des familles naturelles de la phanérogamie et de la cryptogamie vasculaire belges
 1851 : Synopsis analytique de la flore agrostologique belge
